--- a/articles.xlsx
+++ b/articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\timeSync论文库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D034AD-5B5C-4A74-92CF-619EF262CF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E0636-34D9-4424-9CAE-0920AD4C76AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5580" yWindow="525" windowWidth="23145" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubLists" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PubLists!$A$1:$L$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PubLists-related'!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
   <si>
     <t>Geyer, F. and Heidinger, E. and Schneele, S. and von Bodisco, A. and Ieee</t>
   </si>
@@ -399,6 +399,14 @@
   </si>
   <si>
     <t>Proceedings of 2015 Ieee 20th Conference on Emerging Technologies &amp; Factory Automation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,6 +974,12 @@
       </c>
       <c r="E4" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E0636-34D9-4424-9CAE-0920AD4C76AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F04748-BBCC-4585-B87E-6C07383D65BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubLists" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
   <si>
     <t>Geyer, F. and Heidinger, E. and Schneele, S. and von Bodisco, A. and Ieee</t>
   </si>
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t>start up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,9 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,6 +1007,12 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F04748-BBCC-4585-B87E-6C07383D65BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86503A9D-4441-4731-BF4D-1D63AEA9735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubLists" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>Geyer, F. and Heidinger, E. and Schneele, S. and von Bodisco, A. and Ieee</t>
   </si>
@@ -138,9 +138,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>An AUTOSAR Based Approach to Time Synchronize In-Vehicle ECUs in Mixed Network Architecture</t>
-  </si>
-  <si>
     <t>Energy Efficiency Due to a Common Global Timebase-Synchronizing FlexRay to 802.1AS Networks as a Foundation</t>
   </si>
   <si>
@@ -411,6 +408,14 @@
   </si>
   <si>
     <t>sync period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An AUTOSAR Based Approach to Time Synchronize In-Vehicle ECUs in Mixed Network Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync in Mixed Architecture </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,9 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,13 +891,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>25</v>
@@ -915,19 +920,19 @@
         <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
@@ -942,19 +947,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -963,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -971,19 +976,19 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
@@ -992,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1000,19 +1005,19 @@
         <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -1021,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1029,22 +1034,28 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1052,22 +1063,22 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1075,22 +1086,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1098,13 +1109,13 @@
         <v>141</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
@@ -1113,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1121,22 +1132,22 @@
         <v>149</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1144,25 +1155,25 @@
         <v>169</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1170,28 +1181,28 @@
         <v>171</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1199,28 +1210,28 @@
         <v>173</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1228,25 +1239,25 @@
         <v>176</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1254,25 +1265,25 @@
         <v>179</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1280,28 +1291,28 @@
         <v>200</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="G16" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1309,28 +1320,28 @@
         <v>206</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1338,16 +1349,16 @@
         <v>211</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>8</v>
@@ -1356,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1364,16 +1375,16 @@
         <v>217</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
@@ -1382,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1390,25 +1401,25 @@
         <v>222</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>30</v>
@@ -1419,19 +1430,19 @@
         <v>228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>9</v>
@@ -1440,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1448,25 +1459,25 @@
         <v>235</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1474,10 +1485,10 @@
         <v>267</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>2</v>
@@ -1486,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1494,19 +1505,19 @@
         <v>290</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1514,19 +1525,19 @@
         <v>294</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1534,19 +1545,19 @@
         <v>295</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1554,19 +1565,19 @@
         <v>300</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1574,13 +1585,13 @@
         <v>325</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1588,16 +1599,16 @@
         <v>358</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1668,15 +1679,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86503A9D-4441-4731-BF4D-1D63AEA9735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D46BAA0-865F-426B-8270-36ADCFE26178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>Geyer, F. and Heidinger, E. and Schneele, S. and von Bodisco, A. and Ieee</t>
   </si>
@@ -856,9 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,6 +1070,12 @@
       </c>
       <c r="E7" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\论文库\Time-Synchronization-Paper-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D46BAA0-865F-426B-8270-36ADCFE26178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CE33D-42AC-4894-8286-32BB79E370FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="PubLists-related" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PubLists!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PubLists!$A$1:$L$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PubLists-related'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
   <si>
     <t>Geyer, F. and Heidinger, E. and Schneele, S. and von Bodisco, A. and Ieee</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Energy Efficiency Due to a Common Global Timebase-Synchronizing FlexRay to 802.1AS Networks as a Foundation</t>
   </si>
   <si>
-    <t>Performance of IEEE 802.1AS for automotive system using hardware timestamp</t>
-  </si>
-  <si>
     <t>Coexistence of IEEE 1588, C37.238 and 802.1AS, issues and recommendations</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>Time in cyber-physical systems</t>
-  </si>
-  <si>
-    <t>Towards a time redundancy mechanism for critical frames in time-sensitive networking</t>
   </si>
   <si>
     <t>Synchronization Quality of IEEE 802.1AS in Large-Scale Industrial Automation Networks</t>
@@ -346,14 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脕lvarez, I. and Proenza, J. and Barranco, M. and Knezic, M.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017 22nd IEEE International Conference on Emerging Technologies and Factory Automation (ETFA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>about clock
 synchronization</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +403,21 @@
   <si>
     <t xml:space="preserve">Sync in Mixed Architecture </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance of IEEE 802.1AS for automotive system using hardware timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
 </sst>
 </file>
@@ -854,11 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -891,13 +892,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>25</v>
@@ -920,19 +921,19 @@
         <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
@@ -947,19 +948,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -968,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -976,19 +977,19 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
@@ -997,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1005,19 +1006,19 @@
         <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -1026,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1034,28 +1035,28 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1063,28 +1064,28 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1092,22 +1093,28 @@
         <v>128</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1115,13 +1122,13 @@
         <v>141</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
@@ -1130,7 +1137,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1138,22 +1145,22 @@
         <v>149</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1161,25 +1168,25 @@
         <v>169</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1187,28 +1194,28 @@
         <v>171</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -1216,411 +1223,388 @@
         <v>173</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>200</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>206</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>300</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>325</v>
+        <v>358</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>358</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L29" xr:uid="{3A6EDA74-8B2B-4D3E-8CC1-B0451A2E041E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L29">
-    <sortCondition descending="1" ref="E2:E29"/>
+  <autoFilter ref="A1:L28" xr:uid="{3A6EDA74-8B2B-4D3E-8CC1-B0451A2E041E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L28">
+    <sortCondition descending="1" ref="E2:E28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
@@ -1685,15 +1669,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
